--- a/relatorios/repasses_liberados/dentistas/02500962423/2023-08-25_relatorio_repasses_02500962423.xlsx
+++ b/relatorios/repasses_liberados/dentistas/02500962423/2023-08-25_relatorio_repasses_02500962423.xlsx
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1737,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2221,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>25.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">

--- a/relatorios/repasses_liberados/dentistas/02500962423/2023-08-25_relatorio_repasses_02500962423.xlsx
+++ b/relatorios/repasses_liberados/dentistas/02500962423/2023-08-25_relatorio_repasses_02500962423.xlsx
@@ -681,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -813,10 +813,10 @@
         <v>0.263158</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>6.315792</v>
+        <v>8.421056</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -857,10 +857,10 @@
         <v>0.736842</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>49.5157824</v>
+        <v>66.02104320000001</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -989,10 +989,10 @@
         <v>0.457143</v>
       </c>
       <c r="M10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
-        <v>14.628576</v>
+        <v>10.971432</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1077,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N16">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1297,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N20">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1649,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1737,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N28">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1825,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N29">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1869,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N30">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1957,10 +1957,10 @@
         <v>0.208333</v>
       </c>
       <c r="M32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
-        <v>6.666656</v>
+        <v>4.999992</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2045,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N34">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2221,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="39" spans="1:14">
